--- a/artfynd/Lögdeälven käringberget artfynd.xlsx
+++ b/artfynd/Lögdeälven käringberget artfynd.xlsx
@@ -874,57 +874,72 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>70358826</v>
+        <v>62607507</v>
       </c>
       <c r="B4" t="n">
-        <v>79047</v>
+        <v>19902</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>637</v>
+        <v>102001</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Urskogsvedfluga</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Xylophagus kowarzi</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Pleske, 1925)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>malaisefälla</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Lögdeälven: Mossavattsbäckens utlopp, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>683268</v>
+        <v>682916</v>
       </c>
       <c r="R4" t="n">
-        <v>7106487</v>
+        <v>7106901</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -948,12 +963,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2016-06-14</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2016-07-02</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -965,105 +980,87 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>sumpig blandskog med högörtveg. och bäverfällda lövträd</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Sven Hellqvist</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>NHRS-SVHE 000015233</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Sven Hellqvist</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Sven Hellqvist, Niklas Johansson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>62607507</v>
+        <v>70358826</v>
       </c>
       <c r="B5" t="n">
-        <v>19902</v>
+        <v>79047</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102001</v>
+        <v>637</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Urskogsvedfluga</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Xylophagus kowarzi</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pleske, 1925)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>malaisefälla</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Lögdeälven: Mossavattsbäckens utlopp, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>682916</v>
+        <v>683268</v>
       </c>
       <c r="R5" t="n">
-        <v>7106901</v>
+        <v>7106487</v>
       </c>
       <c r="S5" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1087,12 +1084,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2016-06-14</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2016-07-02</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1104,30 +1101,33 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>sumpig blandskog med högörtveg. och bäverfällda lövträd</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>Sven Hellqvist</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>NHRS-SVHE 000015233</t>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Sven Hellqvist</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Sven Hellqvist, Niklas Johansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -2001,57 +2001,57 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>70358836</v>
+        <v>26272961</v>
       </c>
       <c r="B14" t="n">
-        <v>79047</v>
+        <v>57646</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>637</v>
+        <v>102119</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Göktyta</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Jynx torquilla</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>bålar</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Rivarliden,Lögdeälven, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>683265</v>
+        <v>684452</v>
       </c>
       <c r="R14" t="n">
-        <v>7106481</v>
+        <v>7104071</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2075,12 +2075,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2007-05-27</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2007-05-27</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2091,91 +2101,73 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Per-Olof Nilsson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Per-Olof Nilsson, Stefan Delin</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>26272961</v>
+        <v>70358836</v>
       </c>
       <c r="B15" t="n">
-        <v>57646</v>
+        <v>79047</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>102119</v>
+        <v>637</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Göktyta</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Jynx torquilla</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Rivarliden,Lögdeälven, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>684452</v>
+        <v>683265</v>
       </c>
       <c r="R15" t="n">
-        <v>7104071</v>
+        <v>7106481</v>
       </c>
       <c r="S15" t="n">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2199,22 +2191,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2007-05-27</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>12:00</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2007-05-27</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>13:10</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2225,16 +2207,34 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Per-Olof Nilsson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Per-Olof Nilsson, Stefan Delin</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
@@ -2350,57 +2350,53 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>70358838</v>
+        <v>14247467</v>
       </c>
       <c r="B17" t="n">
-        <v>79047</v>
+        <v>5492</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>637</v>
+        <v>101410</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>bålar</t>
+          <t>(Dalman, 1817)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>14 km VSV om Öreström, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>683271</v>
+        <v>683959</v>
       </c>
       <c r="R17" t="n">
-        <v>7106481</v>
+        <v>7105861</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2424,12 +2420,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2005-08-29</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2005-08-29</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2440,41 +2446,23 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Sveaskog Västerbotten</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Via Sveaskog Västerbotten</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>70358846</v>
+        <v>70358838</v>
       </c>
       <c r="B18" t="n">
         <v>79047</v>
@@ -2504,7 +2492,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2518,10 +2506,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>683309</v>
+        <v>683271</v>
       </c>
       <c r="R18" t="n">
-        <v>7106405</v>
+        <v>7106481</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2598,53 +2586,57 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14247467</v>
+        <v>70358846</v>
       </c>
       <c r="B19" t="n">
-        <v>5492</v>
+        <v>79047</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>101410</v>
+        <v>637</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>14 km VSV om Öreström, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>683959</v>
+        <v>683309</v>
       </c>
       <c r="R19" t="n">
-        <v>7105861</v>
+        <v>7106405</v>
       </c>
       <c r="S19" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2668,22 +2660,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2005-08-29</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2005-08-29</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2694,16 +2676,34 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Sveaskog Västerbotten</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Via Sveaskog Västerbotten</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
@@ -3161,10 +3161,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>389888</v>
+        <v>1992352</v>
       </c>
       <c r="B24" t="n">
-        <v>82792</v>
+        <v>80083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3172,34 +3172,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>14 km SV om Västra Örtträsk, Ång</t>
+          <t>14 km VSV om Öreström, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>682187</v>
+        <v>684241</v>
       </c>
       <c r="R24" t="n">
-        <v>7107831</v>
+        <v>7104295</v>
       </c>
       <c r="S24" t="n">
         <v>100</v>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2005-08-18</t>
+          <t>2005-08-25</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2005-08-18</t>
+          <t>2005-08-25</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3258,10 +3258,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1992352</v>
+        <v>389888</v>
       </c>
       <c r="B25" t="n">
-        <v>80083</v>
+        <v>82792</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3269,34 +3269,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>14 km VSV om Öreström, Ång</t>
+          <t>14 km SV om Västra Örtträsk, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>684241</v>
+        <v>682187</v>
       </c>
       <c r="R25" t="n">
-        <v>7104295</v>
+        <v>7107831</v>
       </c>
       <c r="S25" t="n">
         <v>100</v>
@@ -3323,12 +3323,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2005-08-25</t>
+          <t>2005-08-18</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2005-08-25</t>
+          <t>2005-08-18</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3466,57 +3466,48 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>70358837</v>
+        <v>103410953</v>
       </c>
       <c r="B27" t="n">
-        <v>79047</v>
+        <v>92535</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>637</v>
+        <v>4364</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Karlsbäck, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>683265</v>
+        <v>683864</v>
       </c>
       <c r="R27" t="n">
-        <v>7106480</v>
+        <v>7105319</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3540,12 +3531,17 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2022-08-31</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3556,41 +3552,23 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>70358835</v>
+        <v>70358833</v>
       </c>
       <c r="B28" t="n">
         <v>79047</v>
@@ -3620,7 +3598,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>33</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3634,10 +3612,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>683261</v>
+        <v>683266</v>
       </c>
       <c r="R28" t="n">
-        <v>7106484</v>
+        <v>7106492</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3683,12 +3661,12 @@
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AN28" t="n">
@@ -3696,7 +3674,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>1 substratenheter # Betula</t>
+          <t>1 substratenheter # Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3714,7 +3692,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>70358833</v>
+        <v>70358837</v>
       </c>
       <c r="B29" t="n">
         <v>79047</v>
@@ -3744,7 +3722,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3758,10 +3736,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>683266</v>
+        <v>683265</v>
       </c>
       <c r="R29" t="n">
-        <v>7106492</v>
+        <v>7106480</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3838,48 +3816,57 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>103410953</v>
+        <v>70358835</v>
       </c>
       <c r="B30" t="n">
-        <v>92535</v>
+        <v>79047</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4364</v>
+        <v>637</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Karlsbäck, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>683864</v>
+        <v>683261</v>
       </c>
       <c r="R30" t="n">
-        <v>7105319</v>
+        <v>7106484</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3903,17 +3890,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3924,16 +3906,34 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>björkar</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AN30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Betula</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
@@ -4037,32 +4037,32 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>48755362</v>
+        <v>70358825</v>
       </c>
       <c r="B32" t="n">
-        <v>58027</v>
+        <v>79047</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>103015</v>
+        <v>637</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4070,24 +4070,24 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Ormaggan, Käringbergets Ekopark, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>683438</v>
+        <v>683269</v>
       </c>
       <c r="R32" t="n">
-        <v>7105998</v>
+        <v>7106489</v>
       </c>
       <c r="S32" t="n">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4111,22 +4111,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2014-03-23</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>10:15</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2014-03-23</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>12:15</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4137,48 +4127,66 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Sven Jägbrant</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Sven Jägbrant, Jacob Rudhe, Isak Vahlström, André Ahlberg</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>70358825</v>
+        <v>48755362</v>
       </c>
       <c r="B33" t="n">
-        <v>79047</v>
+        <v>58027</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>637</v>
+        <v>103015</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4186,24 +4194,24 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>bålar</t>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Ormaggan, Käringbergets Ekopark, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>683269</v>
+        <v>683438</v>
       </c>
       <c r="R33" t="n">
-        <v>7106489</v>
+        <v>7105998</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4227,12 +4235,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2014-03-23</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2014-03-23</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4243,44 +4261,26 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Sven Jägbrant</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Sven Jägbrant, Jacob Rudhe, Isak Vahlström, André Ahlberg</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>70358840</v>
+        <v>48754881</v>
       </c>
       <c r="B34" t="n">
-        <v>79047</v>
+        <v>57023</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4288,46 +4288,46 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>637</v>
+        <v>102952</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Tofsvipa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Vanellus vanellus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>bålar</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>sträckande</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Ormaggan, Käringbergets Ekopark, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>683270</v>
+        <v>683438</v>
       </c>
       <c r="R34" t="n">
-        <v>7106478</v>
+        <v>7105998</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4351,12 +4351,22 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2014-03-23</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2014-03-23</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4367,41 +4377,23 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Sven Jägbrant</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Sven Jägbrant, Jacob Rudhe, André Ahlberg, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>70358827</v>
+        <v>70358840</v>
       </c>
       <c r="B35" t="n">
         <v>79047</v>
@@ -4431,7 +4423,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4445,10 +4437,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>683279</v>
+        <v>683270</v>
       </c>
       <c r="R35" t="n">
-        <v>7106493</v>
+        <v>7106478</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4525,7 +4517,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>70358824</v>
+        <v>70358827</v>
       </c>
       <c r="B36" t="n">
         <v>79047</v>
@@ -4569,10 +4561,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>683267</v>
+        <v>683279</v>
       </c>
       <c r="R36" t="n">
-        <v>7106503</v>
+        <v>7106493</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4649,7 +4641,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>70358829</v>
+        <v>70358824</v>
       </c>
       <c r="B37" t="n">
         <v>79047</v>
@@ -4679,7 +4671,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4693,10 +4685,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>683279</v>
+        <v>683267</v>
       </c>
       <c r="R37" t="n">
-        <v>7106485</v>
+        <v>7106503</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4773,7 +4765,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>70358844</v>
+        <v>70358829</v>
       </c>
       <c r="B38" t="n">
         <v>79047</v>
@@ -4803,7 +4795,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4817,10 +4809,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>683285</v>
+        <v>683279</v>
       </c>
       <c r="R38" t="n">
-        <v>7106449</v>
+        <v>7106485</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4875,11 +4867,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>2 substratenheter # Picea abies</t>
+          <t>1 substratenheter # Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -4897,10 +4889,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>48754881</v>
+        <v>70358844</v>
       </c>
       <c r="B39" t="n">
-        <v>57023</v>
+        <v>79047</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4908,46 +4900,46 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>102952</v>
+        <v>637</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tofsvipa</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Vanellus vanellus</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>sträckande</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Ormaggan, Käringbergets Ekopark, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>683438</v>
+        <v>683285</v>
       </c>
       <c r="R39" t="n">
-        <v>7105998</v>
+        <v>7106449</v>
       </c>
       <c r="S39" t="n">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4971,22 +4963,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2014-03-23</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>10:15</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2014-03-23</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>12:15</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4997,16 +4979,34 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>2 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Sven Jägbrant</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Sven Jägbrant, Jacob Rudhe, André Ahlberg, Isak Vahlström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111769654</v>
+        <v>84766750</v>
       </c>
       <c r="B45" t="n">
-        <v>90001</v>
+        <v>79047</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5523,40 +5523,37 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6276</v>
+        <v>637</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Paradiset, Ång</t>
+          <t>Lögdeälven, 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>684522</v>
+        <v>683265</v>
       </c>
       <c r="R45" t="n">
-        <v>7103109</v>
+        <v>7106489</v>
       </c>
       <c r="S45" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5580,12 +5577,12 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5594,29 +5591,28 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Andreas Öster, kristina stenmarck</t>
+          <t>Isak Vahlström, Carl Jansson, Aron Dynesius</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>70358822</v>
+        <v>111769654</v>
       </c>
       <c r="B46" t="n">
-        <v>79047</v>
+        <v>90001</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5624,46 +5620,40 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>637</v>
+        <v>6276</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Paradiset, Ång</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>683310</v>
+        <v>684522</v>
       </c>
       <c r="R46" t="n">
-        <v>7106389</v>
+        <v>7103109</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5687,12 +5677,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5701,43 +5691,26 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ46" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Andreas Öster, kristina stenmarck</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>70358831</v>
+        <v>70358822</v>
       </c>
       <c r="B47" t="n">
         <v>79047</v>
@@ -5767,7 +5740,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5781,10 +5754,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>683270</v>
+        <v>683310</v>
       </c>
       <c r="R47" t="n">
-        <v>7106483</v>
+        <v>7106389</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5861,7 +5834,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>84766750</v>
+        <v>70358831</v>
       </c>
       <c r="B48" t="n">
         <v>79047</v>
@@ -5889,17 +5862,26 @@
           <t>(L.) Ach.</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Lögdeälven, 5 km uppströms väg 92, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>683265</v>
+        <v>683270</v>
       </c>
       <c r="R48" t="n">
-        <v>7106489</v>
+        <v>7106483</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5926,12 +5908,12 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5942,6 +5924,24 @@
       </c>
       <c r="AG48" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
@@ -5951,64 +5951,64 @@
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson, Aron Dynesius</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>70358839</v>
+        <v>48772409</v>
       </c>
       <c r="B49" t="n">
-        <v>79047</v>
+        <v>57654</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>637</v>
+        <v>100049</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>bålar</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Ormaggan, Käringbergets Ekopark, Ång</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>683272</v>
+        <v>683438</v>
       </c>
       <c r="R49" t="n">
-        <v>7106477</v>
+        <v>7105998</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6032,12 +6032,22 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2014-03-23</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2014-03-23</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6048,91 +6058,73 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ49" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Sven Jägbrant</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Sven Jägbrant, André Ahlberg, Isak Vahlström, Jacob Rudhe</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48772409</v>
+        <v>70358839</v>
       </c>
       <c r="B50" t="n">
-        <v>57654</v>
+        <v>79047</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100049</v>
+        <v>637</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Ormaggan, Käringbergets Ekopark, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>683438</v>
+        <v>683272</v>
       </c>
       <c r="R50" t="n">
-        <v>7105998</v>
+        <v>7106477</v>
       </c>
       <c r="S50" t="n">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6156,22 +6148,12 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2014-03-23</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>10:15</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2014-03-23</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>12:15</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6182,16 +6164,34 @@
       </c>
       <c r="AG50" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Sven Jägbrant</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Sven Jägbrant, André Ahlberg, Isak Vahlström, Jacob Rudhe</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
@@ -6430,67 +6430,57 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>61964236</v>
+        <v>70358834</v>
       </c>
       <c r="B53" t="n">
-        <v>56849</v>
+        <v>79047</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100138</v>
+        <v>637</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>rastande</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Grusstig, Trolltjärnen, öster om Fredrika, Trolltjärnen, Käringbergets Ekopark, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>684547</v>
+        <v>683258</v>
       </c>
       <c r="R53" t="n">
-        <v>7102992</v>
+        <v>7106482</v>
       </c>
       <c r="S53" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6514,12 +6504,12 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2016-10-13</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2016-10-13</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6530,73 +6520,101 @@
       </c>
       <c r="AG53" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Raul Vicente</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Raul Vicente</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>70358834</v>
+        <v>61964236</v>
       </c>
       <c r="B54" t="n">
-        <v>79047</v>
+        <v>56849</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>637</v>
+        <v>100138</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>bålar</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>rastande</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Grusstig, Trolltjärnen, öster om Fredrika, Trolltjärnen, Käringbergets Ekopark, Ång</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>683258</v>
+        <v>684547</v>
       </c>
       <c r="R54" t="n">
-        <v>7106482</v>
+        <v>7102992</v>
       </c>
       <c r="S54" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6620,12 +6638,12 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2016-10-13</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2016-10-13</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6636,44 +6654,26 @@
       </c>
       <c r="AG54" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ54" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK54" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO54" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Raul Vicente</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Raul Vicente</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>23724142</v>
+        <v>84302328</v>
       </c>
       <c r="B55" t="n">
-        <v>58162</v>
+        <v>57654</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6681,16 +6681,16 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>102995</v>
+        <v>100049</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Buskskvätta</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -6698,24 +6698,28 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Rivarliden,Lögdeälven, Ång</t>
+          <t>Ormaggan, Stor-Lögdeåberget, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>684452</v>
+        <v>683554</v>
       </c>
       <c r="R55" t="n">
-        <v>7104071</v>
+        <v>7106142</v>
       </c>
       <c r="S55" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6739,22 +6743,22 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2006-05-20</t>
+          <t>2020-04-10</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2006-05-20</t>
+          <t>2020-04-10</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6769,69 +6773,64 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Per-Olof Nilsson</t>
+          <t>Antoine Bos</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Per-Olof Nilsson</t>
+          <t>Antoine Bos, Andreas Bernhold</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>70358842</v>
+        <v>23724142</v>
       </c>
       <c r="B56" t="n">
-        <v>79047</v>
+        <v>58162</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>637</v>
+        <v>102995</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Buskskvätta</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Saxicola rubetra</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>bålar</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Rivarliden,Lögdeälven, Ång</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>683284</v>
+        <v>684452</v>
       </c>
       <c r="R56" t="n">
-        <v>7106458</v>
+        <v>7104071</v>
       </c>
       <c r="S56" t="n">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6855,12 +6854,22 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2006-05-20</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2006-05-20</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6871,90 +6880,73 @@
       </c>
       <c r="AG56" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ56" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK56" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Per-Olof Nilsson</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Per-Olof Nilsson</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>84302328</v>
+        <v>70358842</v>
       </c>
       <c r="B57" t="n">
-        <v>57654</v>
+        <v>79047</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100049</v>
+        <v>637</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Ormaggan, Stor-Lögdeåberget, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>683554</v>
+        <v>683284</v>
       </c>
       <c r="R57" t="n">
-        <v>7106142</v>
+        <v>7106458</v>
       </c>
       <c r="S57" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6978,22 +6970,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>09:00</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>09:00</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7004,16 +6986,34 @@
       </c>
       <c r="AG57" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Antoine Bos</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Antoine Bos, Andreas Bernhold</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
@@ -7680,52 +7680,48 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>20648541</v>
+        <v>267369</v>
       </c>
       <c r="B64" t="n">
-        <v>56852</v>
+        <v>79012</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>102613</v>
+        <v>185</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Rivarliden,Lögdeälven, Ång</t>
+          <t>15 km V om Öreström, Ång</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>684452</v>
+        <v>683124</v>
       </c>
       <c r="R64" t="n">
-        <v>7104071</v>
+        <v>7106553</v>
       </c>
       <c r="S64" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7749,22 +7745,12 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2005-04-08</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>14:00</t>
+          <t>2005-07-09</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2005-04-08</t>
-        </is>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>14:00</t>
+          <t>2005-07-09</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7779,60 +7765,64 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Per-Olof Nilsson</t>
+          <t>Sveaskog Västerbotten</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Per-Olof Nilsson</t>
+          <t>Via Sveaskog Västerbotten</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>267369</v>
+        <v>20648541</v>
       </c>
       <c r="B65" t="n">
-        <v>79012</v>
+        <v>56852</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>185</v>
+        <v>102613</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>15 km V om Öreström, Ång</t>
+          <t>Rivarliden,Lögdeälven, Ång</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>683124</v>
+        <v>684452</v>
       </c>
       <c r="R65" t="n">
-        <v>7106553</v>
+        <v>7104071</v>
       </c>
       <c r="S65" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7856,12 +7846,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2005-07-09</t>
+          <t>2005-04-08</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2005-07-09</t>
+          <t>2005-04-08</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7876,12 +7876,12 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Sveaskog Västerbotten</t>
+          <t>Per-Olof Nilsson</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Via Sveaskog Västerbotten</t>
+          <t>Per-Olof Nilsson</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
@@ -8096,10 +8096,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>266906</v>
+        <v>1992020</v>
       </c>
       <c r="B68" t="n">
-        <v>79012</v>
+        <v>80083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8107,34 +8107,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>14 km SV om Västra Örtträsk, Ång</t>
+          <t>13,8 km VSV om Provåker, Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>682187</v>
+        <v>684795</v>
       </c>
       <c r="R68" t="n">
-        <v>7107831</v>
+        <v>7103664</v>
       </c>
       <c r="S68" t="n">
         <v>100</v>
@@ -8161,12 +8161,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2005-06-29</t>
+          <t>2005-08-15</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2005-06-29</t>
+          <t>2005-08-15</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8290,10 +8290,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1992020</v>
+        <v>266906</v>
       </c>
       <c r="B70" t="n">
-        <v>80083</v>
+        <v>79012</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8301,34 +8301,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>13,8 km VSV om Provåker, Ång</t>
+          <t>14 km SV om Västra Örtträsk, Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>684795</v>
+        <v>682187</v>
       </c>
       <c r="R70" t="n">
-        <v>7103664</v>
+        <v>7107831</v>
       </c>
       <c r="S70" t="n">
         <v>100</v>
@@ -8355,12 +8355,12 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2005-08-15</t>
+          <t>2005-06-29</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2005-08-15</t>
+          <t>2005-06-29</t>
         </is>
       </c>
       <c r="AD70" t="b">

--- a/artfynd/Lögdeälven käringberget artfynd.xlsx
+++ b/artfynd/Lögdeälven käringberget artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1987249</v>
+        <v>1988068</v>
       </c>
       <c r="B2" t="n">
         <v>80083</v>
@@ -711,17 +711,17 @@
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>14,1 km VSV om Provåker, Ång</t>
+          <t>15 km V om Öreström, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>684503</v>
+        <v>683124</v>
       </c>
       <c r="R2" t="n">
-        <v>7103461</v>
+        <v>7106553</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -745,12 +745,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2005-06-04</t>
+          <t>2005-06-15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2005-06-04</t>
+          <t>2005-06-15</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -777,7 +777,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1988068</v>
+        <v>1987249</v>
       </c>
       <c r="B3" t="n">
         <v>80083</v>
@@ -808,17 +808,17 @@
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>15 km V om Öreström, Ång</t>
+          <t>14,1 km VSV om Provåker, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>683124</v>
+        <v>684503</v>
       </c>
       <c r="R3" t="n">
-        <v>7106553</v>
+        <v>7103461</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -842,12 +842,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2005-06-15</t>
+          <t>2005-06-04</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2005-06-15</t>
+          <t>2005-06-04</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1362,7 +1362,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>84766757</v>
+        <v>84766758</v>
       </c>
       <c r="B8" t="n">
         <v>79047</v>
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>683282</v>
+        <v>683310</v>
       </c>
       <c r="R8" t="n">
-        <v>7106452</v>
+        <v>7106387</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>84766754</v>
+        <v>84766757</v>
       </c>
       <c r="B9" t="n">
         <v>79047</v>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>683264</v>
+        <v>683282</v>
       </c>
       <c r="R9" t="n">
-        <v>7106486</v>
+        <v>7106452</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84766758</v>
+        <v>84766754</v>
       </c>
       <c r="B10" t="n">
         <v>79047</v>
@@ -1591,10 +1591,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>683310</v>
+        <v>683264</v>
       </c>
       <c r="R10" t="n">
-        <v>7106387</v>
+        <v>7106486</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -2001,57 +2001,57 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>26272961</v>
+        <v>70358836</v>
       </c>
       <c r="B14" t="n">
-        <v>57646</v>
+        <v>79047</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>102119</v>
+        <v>637</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Göktyta</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Jynx torquilla</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Rivarliden,Lögdeälven, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>684452</v>
+        <v>683265</v>
       </c>
       <c r="R14" t="n">
-        <v>7104071</v>
+        <v>7106481</v>
       </c>
       <c r="S14" t="n">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2075,22 +2075,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2007-05-27</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>12:00</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2007-05-27</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>13:10</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2101,73 +2091,91 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Per-Olof Nilsson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Per-Olof Nilsson, Stefan Delin</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>70358836</v>
+        <v>26272961</v>
       </c>
       <c r="B15" t="n">
-        <v>79047</v>
+        <v>57646</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>637</v>
+        <v>102119</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Göktyta</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Jynx torquilla</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>bålar</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Rivarliden,Lögdeälven, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>683265</v>
+        <v>684452</v>
       </c>
       <c r="R15" t="n">
-        <v>7106481</v>
+        <v>7104071</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2191,12 +2199,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2007-05-27</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2007-05-27</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2207,34 +2225,16 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Per-Olof Nilsson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Per-Olof Nilsson, Stefan Delin</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>70358832</v>
+        <v>70358841</v>
       </c>
       <c r="B22" t="n">
         <v>79047</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2957,10 +2957,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>683270</v>
+        <v>683279</v>
       </c>
       <c r="R22" t="n">
-        <v>7106480</v>
+        <v>7106466</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>70358841</v>
+        <v>70358832</v>
       </c>
       <c r="B23" t="n">
         <v>79047</v>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>683279</v>
+        <v>683270</v>
       </c>
       <c r="R23" t="n">
-        <v>7106466</v>
+        <v>7106480</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3161,10 +3161,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1992352</v>
+        <v>389888</v>
       </c>
       <c r="B24" t="n">
-        <v>80083</v>
+        <v>82792</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3172,34 +3172,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>14 km VSV om Öreström, Ång</t>
+          <t>14 km SV om Västra Örtträsk, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>684241</v>
+        <v>682187</v>
       </c>
       <c r="R24" t="n">
-        <v>7104295</v>
+        <v>7107831</v>
       </c>
       <c r="S24" t="n">
         <v>100</v>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2005-08-25</t>
+          <t>2005-08-18</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2005-08-25</t>
+          <t>2005-08-18</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3258,10 +3258,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>389888</v>
+        <v>1992352</v>
       </c>
       <c r="B25" t="n">
-        <v>82792</v>
+        <v>80083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3269,34 +3269,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>14 km SV om Västra Örtträsk, Ång</t>
+          <t>14 km VSV om Öreström, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>682187</v>
+        <v>684241</v>
       </c>
       <c r="R25" t="n">
-        <v>7107831</v>
+        <v>7104295</v>
       </c>
       <c r="S25" t="n">
         <v>100</v>
@@ -3323,12 +3323,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2005-08-18</t>
+          <t>2005-08-25</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2005-08-18</t>
+          <t>2005-08-25</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3466,48 +3466,57 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>103410953</v>
+        <v>70358837</v>
       </c>
       <c r="B27" t="n">
-        <v>92535</v>
+        <v>79047</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4364</v>
+        <v>637</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Karlsbäck, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>683864</v>
+        <v>683265</v>
       </c>
       <c r="R27" t="n">
-        <v>7105319</v>
+        <v>7106480</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3531,17 +3540,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3552,16 +3556,34 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
@@ -3692,7 +3714,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>70358837</v>
+        <v>70358835</v>
       </c>
       <c r="B29" t="n">
         <v>79047</v>
@@ -3722,7 +3744,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3736,10 +3758,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>683265</v>
+        <v>683261</v>
       </c>
       <c r="R29" t="n">
-        <v>7106480</v>
+        <v>7106484</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3785,12 +3807,12 @@
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AN29" t="n">
@@ -3798,7 +3820,7 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>1 substratenheter # Picea abies</t>
+          <t>1 substratenheter # Betula</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -3816,57 +3838,48 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>70358835</v>
+        <v>103410953</v>
       </c>
       <c r="B30" t="n">
-        <v>79047</v>
+        <v>92535</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>637</v>
+        <v>4364</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Karlsbäck, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>683261</v>
+        <v>683864</v>
       </c>
       <c r="R30" t="n">
-        <v>7106484</v>
+        <v>7105319</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3890,12 +3903,17 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2022-08-31</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3906,34 +3924,16 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>björkar</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Betula</t>
-        </is>
-      </c>
-      <c r="AN30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Betula</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
@@ -4037,32 +4037,32 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>70358825</v>
+        <v>48755362</v>
       </c>
       <c r="B32" t="n">
-        <v>79047</v>
+        <v>58027</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>637</v>
+        <v>103015</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4070,24 +4070,24 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>bålar</t>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Ormaggan, Käringbergets Ekopark, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>683269</v>
+        <v>683438</v>
       </c>
       <c r="R32" t="n">
-        <v>7106489</v>
+        <v>7105998</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4111,12 +4111,22 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2014-03-23</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2014-03-23</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4127,66 +4137,48 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Sven Jägbrant</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Sven Jägbrant, Jacob Rudhe, Isak Vahlström, André Ahlberg</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>48755362</v>
+        <v>70358825</v>
       </c>
       <c r="B33" t="n">
-        <v>58027</v>
+        <v>79047</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>103015</v>
+        <v>637</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4194,24 +4186,24 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Ormaggan, Käringbergets Ekopark, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>683438</v>
+        <v>683269</v>
       </c>
       <c r="R33" t="n">
-        <v>7105998</v>
+        <v>7106489</v>
       </c>
       <c r="S33" t="n">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4235,22 +4227,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2014-03-23</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>10:15</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2014-03-23</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>12:15</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4261,16 +4243,34 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Sven Jägbrant</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Sven Jägbrant, Jacob Rudhe, Isak Vahlström, André Ahlberg</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>70358840</v>
+        <v>70358827</v>
       </c>
       <c r="B35" t="n">
         <v>79047</v>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4437,10 +4437,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>683270</v>
+        <v>683279</v>
       </c>
       <c r="R35" t="n">
-        <v>7106478</v>
+        <v>7106493</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>70358827</v>
+        <v>70358840</v>
       </c>
       <c r="B36" t="n">
         <v>79047</v>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4561,10 +4561,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>683279</v>
+        <v>683270</v>
       </c>
       <c r="R36" t="n">
-        <v>7106493</v>
+        <v>7106478</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4641,7 +4641,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>70358824</v>
+        <v>70358829</v>
       </c>
       <c r="B37" t="n">
         <v>79047</v>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4685,10 +4685,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>683267</v>
+        <v>683279</v>
       </c>
       <c r="R37" t="n">
-        <v>7106503</v>
+        <v>7106485</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>70358829</v>
+        <v>70358844</v>
       </c>
       <c r="B38" t="n">
         <v>79047</v>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4809,10 +4809,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>683279</v>
+        <v>683285</v>
       </c>
       <c r="R38" t="n">
-        <v>7106485</v>
+        <v>7106449</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4867,11 +4867,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>1 substratenheter # Picea abies</t>
+          <t>2 substratenheter # Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>70358844</v>
+        <v>70358824</v>
       </c>
       <c r="B39" t="n">
         <v>79047</v>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -4933,10 +4933,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>683285</v>
+        <v>683267</v>
       </c>
       <c r="R39" t="n">
-        <v>7106449</v>
+        <v>7106503</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4991,11 +4991,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>2 substratenheter # Picea abies</t>
+          <t>1 substratenheter # Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>84766752</v>
+        <v>84766749</v>
       </c>
       <c r="B42" t="n">
         <v>79047</v>
@@ -5256,10 +5256,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>683275</v>
+        <v>683262</v>
       </c>
       <c r="R42" t="n">
-        <v>7106480</v>
+        <v>7106491</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>84766749</v>
+        <v>84766752</v>
       </c>
       <c r="B43" t="n">
         <v>79047</v>
@@ -5353,10 +5353,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>683262</v>
+        <v>683275</v>
       </c>
       <c r="R43" t="n">
-        <v>7106491</v>
+        <v>7106480</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>84766750</v>
+        <v>70358822</v>
       </c>
       <c r="B45" t="n">
         <v>79047</v>
@@ -5540,17 +5540,26 @@
           <t>(L.) Ach.</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Lögdeälven, 5 km uppströms väg 92, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>683265</v>
+        <v>683310</v>
       </c>
       <c r="R45" t="n">
-        <v>7106489</v>
+        <v>7106389</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5577,12 +5586,12 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5593,6 +5602,24 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
@@ -5602,17 +5629,17 @@
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson, Aron Dynesius</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111769654</v>
+        <v>70358831</v>
       </c>
       <c r="B46" t="n">
-        <v>90001</v>
+        <v>79047</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5620,40 +5647,46 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6276</v>
+        <v>637</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Paradiset, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>684522</v>
+        <v>683270</v>
       </c>
       <c r="R46" t="n">
-        <v>7103109</v>
+        <v>7106483</v>
       </c>
       <c r="S46" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5677,12 +5710,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5691,26 +5724,43 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
-      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Andreas Öster, kristina stenmarck</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>70358822</v>
+        <v>84766750</v>
       </c>
       <c r="B47" t="n">
         <v>79047</v>
@@ -5738,26 +5788,17 @@
           <t>(L.) Ach.</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Lögdeälven, 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>683310</v>
+        <v>683265</v>
       </c>
       <c r="R47" t="n">
-        <v>7106389</v>
+        <v>7106489</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5784,12 +5825,12 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5800,24 +5841,6 @@
       </c>
       <c r="AG47" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
@@ -5827,17 +5850,17 @@
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Isak Vahlström, Carl Jansson, Aron Dynesius</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>70358831</v>
+        <v>111769654</v>
       </c>
       <c r="B48" t="n">
-        <v>79047</v>
+        <v>90001</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5845,46 +5868,40 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>637</v>
+        <v>6276</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Paradiset, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>683270</v>
+        <v>684522</v>
       </c>
       <c r="R48" t="n">
-        <v>7106483</v>
+        <v>7103109</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5908,12 +5925,12 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5922,36 +5939,19 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ48" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK48" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Andreas Öster, kristina stenmarck</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
@@ -6430,57 +6430,67 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>70358834</v>
+        <v>61964236</v>
       </c>
       <c r="B53" t="n">
-        <v>79047</v>
+        <v>56849</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>637</v>
+        <v>100138</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>bålar</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>rastande</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Grusstig, Trolltjärnen, öster om Fredrika, Trolltjärnen, Käringbergets Ekopark, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>683258</v>
+        <v>684547</v>
       </c>
       <c r="R53" t="n">
-        <v>7106482</v>
+        <v>7102992</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6504,12 +6514,12 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2016-10-13</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2016-10-13</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6520,101 +6530,73 @@
       </c>
       <c r="AG53" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ53" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK53" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO53" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Raul Vicente</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Raul Vicente</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>61964236</v>
+        <v>70358834</v>
       </c>
       <c r="B54" t="n">
-        <v>56849</v>
+        <v>79047</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100138</v>
+        <v>637</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>rastande</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Grusstig, Trolltjärnen, öster om Fredrika, Trolltjärnen, Käringbergets Ekopark, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>684547</v>
+        <v>683258</v>
       </c>
       <c r="R54" t="n">
-        <v>7102992</v>
+        <v>7106482</v>
       </c>
       <c r="S54" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6638,12 +6620,12 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2016-10-13</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2016-10-13</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6654,26 +6636,44 @@
       </c>
       <c r="AG54" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Raul Vicente</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Raul Vicente</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>84302328</v>
+        <v>23724142</v>
       </c>
       <c r="B55" t="n">
-        <v>57654</v>
+        <v>58162</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6681,16 +6681,16 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100049</v>
+        <v>102995</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Buskskvätta</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Saxicola rubetra</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -6698,28 +6698,24 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Ormaggan, Stor-Lögdeåberget, Ång</t>
+          <t>Rivarliden,Lögdeälven, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>683554</v>
+        <v>684452</v>
       </c>
       <c r="R55" t="n">
-        <v>7106142</v>
+        <v>7104071</v>
       </c>
       <c r="S55" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6743,22 +6739,22 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2006-05-20</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2006-05-20</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6773,64 +6769,69 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Antoine Bos</t>
+          <t>Per-Olof Nilsson</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Antoine Bos, Andreas Bernhold</t>
+          <t>Per-Olof Nilsson</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>23724142</v>
+        <v>70358842</v>
       </c>
       <c r="B56" t="n">
-        <v>58162</v>
+        <v>79047</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>102995</v>
+        <v>637</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Buskskvätta</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Rivarliden,Lögdeälven, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>684452</v>
+        <v>683284</v>
       </c>
       <c r="R56" t="n">
-        <v>7104071</v>
+        <v>7106458</v>
       </c>
       <c r="S56" t="n">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6854,22 +6855,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2006-05-20</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>10:00</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2006-05-20</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>10:00</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6880,73 +6871,90 @@
       </c>
       <c r="AG56" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Per-Olof Nilsson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Per-Olof Nilsson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>70358842</v>
+        <v>84302328</v>
       </c>
       <c r="B57" t="n">
-        <v>79047</v>
+        <v>57654</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>637</v>
+        <v>100049</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Ormaggan, Stor-Lögdeåberget, Ång</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>683284</v>
+        <v>683554</v>
       </c>
       <c r="R57" t="n">
-        <v>7106458</v>
+        <v>7106142</v>
       </c>
       <c r="S57" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6970,12 +6978,22 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6986,34 +7004,16 @@
       </c>
       <c r="AG57" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ57" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK57" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Antoine Bos</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Antoine Bos, Andreas Bernhold</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
@@ -7440,57 +7440,57 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>48755363</v>
+        <v>70358830</v>
       </c>
       <c r="B62" t="n">
-        <v>56840</v>
+        <v>79047</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>102612</v>
+        <v>637</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Ormaggan, Käringbergets Ekopark, Ång</t>
+          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>683438</v>
+        <v>683265</v>
       </c>
       <c r="R62" t="n">
-        <v>7105998</v>
+        <v>7106482</v>
       </c>
       <c r="S62" t="n">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7514,22 +7514,12 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2014-03-23</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>10:15</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2014-03-23</t>
-        </is>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>12:15</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7540,73 +7530,91 @@
       </c>
       <c r="AG62" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AN62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Picea abies</t>
+        </is>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Sven Jägbrant</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Sven Jägbrant, Jacob Rudhe, André Ahlberg, Isak Vahlström</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>70358830</v>
+        <v>48755363</v>
       </c>
       <c r="B63" t="n">
-        <v>79047</v>
+        <v>56840</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>637</v>
+        <v>102612</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>bålar</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Lögdeälven 5 km uppströms väg 92, Ång</t>
+          <t>Ormaggan, Käringbergets Ekopark, Ång</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>683265</v>
+        <v>683438</v>
       </c>
       <c r="R63" t="n">
-        <v>7106482</v>
+        <v>7105998</v>
       </c>
       <c r="S63" t="n">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7630,12 +7638,22 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2014-03-23</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2014-03-23</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7646,34 +7664,16 @@
       </c>
       <c r="AG63" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ63" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK63" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AN63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO63" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Picea abies</t>
-        </is>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Sven Jägbrant</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Sven Jägbrant, Jacob Rudhe, André Ahlberg, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
@@ -7777,27 +7777,27 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>20648541</v>
+        <v>20638959</v>
       </c>
       <c r="B65" t="n">
-        <v>56852</v>
+        <v>57654</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>102613</v>
+        <v>100049</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -7807,7 +7807,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -7888,27 +7888,27 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>20638959</v>
+        <v>20648541</v>
       </c>
       <c r="B66" t="n">
-        <v>57654</v>
+        <v>56852</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100049</v>
+        <v>102613</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -8096,10 +8096,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1992020</v>
+        <v>85601</v>
       </c>
       <c r="B68" t="n">
-        <v>80083</v>
+        <v>96614</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8107,34 +8107,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>13,8 km VSV om Provåker, Ång</t>
+          <t>14 km V om Öreström, Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>684795</v>
+        <v>683893</v>
       </c>
       <c r="R68" t="n">
-        <v>7103664</v>
+        <v>7106501</v>
       </c>
       <c r="S68" t="n">
         <v>100</v>
@@ -8161,12 +8161,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2005-08-15</t>
+          <t>2005-06-16</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2005-08-15</t>
+          <t>2005-06-16</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8193,10 +8193,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>85601</v>
+        <v>266906</v>
       </c>
       <c r="B69" t="n">
-        <v>96614</v>
+        <v>79012</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8204,34 +8204,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>14 km V om Öreström, Ång</t>
+          <t>14 km SV om Västra Örtträsk, Ång</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>683893</v>
+        <v>682187</v>
       </c>
       <c r="R69" t="n">
-        <v>7106501</v>
+        <v>7107831</v>
       </c>
       <c r="S69" t="n">
         <v>100</v>
@@ -8258,12 +8258,12 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2005-06-16</t>
+          <t>2005-06-29</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2005-06-16</t>
+          <t>2005-06-29</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8290,10 +8290,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>266906</v>
+        <v>1992020</v>
       </c>
       <c r="B70" t="n">
-        <v>79012</v>
+        <v>80083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8301,34 +8301,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>14 km SV om Västra Örtträsk, Ång</t>
+          <t>13,8 km VSV om Provåker, Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>682187</v>
+        <v>684795</v>
       </c>
       <c r="R70" t="n">
-        <v>7107831</v>
+        <v>7103664</v>
       </c>
       <c r="S70" t="n">
         <v>100</v>
@@ -8355,12 +8355,12 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2005-06-29</t>
+          <t>2005-08-15</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2005-06-29</t>
+          <t>2005-08-15</t>
         </is>
       </c>
       <c r="AD70" t="b">
